--- a/biology/Botanique/Antonio_Lussich/Antonio_Lussich.xlsx
+++ b/biology/Botanique/Antonio_Lussich/Antonio_Lussich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antonio Lussich, né à Montevideo le 23 mars 1848 et mort dans la même ville le 5 juin 1928, était un armateur, arboriste et homme de lettres uruguayen[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antonio Lussich, né à Montevideo le 23 mars 1848 et mort dans la même ville le 5 juin 1928, était un armateur, arboriste et homme de lettres uruguayen.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Montevideo, en Uruguay, fils de Filip Lukšić, un marin croate.
 Il a écrit sur les questions maritimes et de la vie rurale en Uruguay. Il était également un politicien conservateur, membre du Parti national; pendant la guerre civile, il a combattu pour les blancos (membres du Parti national de l'Uruguay).
-Lussich était aussi un propriétaire terrien de premier plan[2],[3].
+Lussich était aussi un propriétaire terrien de premier plan,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Los tres gauchos orientales (1872)
 El matrero Luciano Santos (1873)
